--- a/GoldAnalysisSystem/new.xlsx
+++ b/GoldAnalysisSystem/new.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -54,18 +57,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -403,7 +409,99 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>43906</v>
+      </c>
+      <c r="B2" t="n">
+        <v>352.94</v>
+      </c>
+      <c r="C2" t="n">
+        <v>353.06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>346.64</v>
+      </c>
+      <c r="E2" t="n">
+        <v>351.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>350.32</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9676</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>43907</v>
+      </c>
+      <c r="B3" t="n">
+        <v>345</v>
+      </c>
+      <c r="C3" t="n">
+        <v>345</v>
+      </c>
+      <c r="D3" t="n">
+        <v>333.68</v>
+      </c>
+      <c r="E3" t="n">
+        <v>334.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>338.84</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>43908</v>
+      </c>
+      <c r="B4" t="n">
+        <v>343.7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>348</v>
+      </c>
+      <c r="D4" t="n">
+        <v>340.42</v>
+      </c>
+      <c r="E4" t="n">
+        <v>342.62</v>
+      </c>
+      <c r="F4" t="n">
+        <v>344.96</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7877</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>43909</v>
+      </c>
+      <c r="B5" t="n">
+        <v>339</v>
+      </c>
+      <c r="C5" t="n">
+        <v>340.96</v>
+      </c>
+      <c r="D5" t="n">
+        <v>334.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>340.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>338.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6813</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>